--- a/Cronograma de Atividades.xlsx
+++ b/Cronograma de Atividades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELTONJES\Desktop\Cursos\udemy. com - All You Need To Know About AngularJS - Training On AngularJS (by BrutalStorm)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELTONJES\Desktop\AngularJS-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>1,2,3,4,5</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>6,7,8,9,10,11,12,13,14</t>
+  </si>
+  <si>
+    <t>15, 16, 17</t>
   </si>
   <si>
     <r>
@@ -74,7 +80,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6,7,</t>
+      <t>18,19,</t>
     </r>
     <r>
       <rPr>
@@ -85,7 +91,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>8,9,10,11,12,13,14</t>
+      <t>20*</t>
     </r>
   </si>
 </sst>
@@ -142,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -150,16 +156,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,94 +462,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14"/>
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
